--- a/data.xlsx
+++ b/data.xlsx
@@ -125,6 +125,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -204,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -228,6 +230,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -450,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -877,7 +882,7 @@
       </c>
       <c r="M10" s="1">
         <f>B9*B29+C9*C29+D9*D29+E9*E29+F9*F29+G9*G29+H9*H29+I9*I29+J9*J29+K9*K29+L9*L29+M9*M29+N9*N29+O9*O29</f>
-        <v>-0.10079999999999999</v>
+        <v>-1.008E-2</v>
       </c>
       <c r="N10" s="1">
         <f>B9*B30+C9*C30+D9*D30+E9*E30+F9*F30+G9*G30+H9*H30+I9*I30+J9*J30+K9*K30+L9*L30+M9*M30+N9*N30+O9*O30</f>
@@ -929,7 +934,7 @@
       </c>
       <c r="J11" s="1">
         <f>B10*B26+C10*C26+D10*D26+E10*E26+F10*F26+G10*G26+H10*H26+I10*I26+J10*J26+K10*K26+L10*L26+M10*M26+N10*N26+O10*O26</f>
-        <v>-4.0444649999999985E-2</v>
+        <v>-0.43928549999999983</v>
       </c>
       <c r="K11" s="1">
         <f>B10*B27+C10*C27+D10*D27+E10*E27+F10*F27+G10*G27+H10*H27+I10*I27+J10*J27+K10*K27+L10*L27+M10*M27+N10*N27+O10*O27</f>
@@ -945,7 +950,7 @@
       </c>
       <c r="N11" s="1">
         <f>B10*B30+C10*C30+D10*D30+E10*E30+F10*F30+G10*G30+H10*H30+I10*I30+J10*J30+K10*K30+L10*L30+M10*M30+N10*N30+O10*O30</f>
-        <v>-1.0011485245724998E-2</v>
+        <v>-9.3948524572500002E-4</v>
       </c>
       <c r="O11" s="1">
         <f>B10*B31+C10*C31+D10*D31+E10*E31+F10*F31+G10*G31+H10*H31+I10*I31+J10*J31+K10*K31+L10*L31+M10*M31+N10*N31+O10*O31</f>
@@ -969,7 +974,7 @@
       </c>
       <c r="D12" s="1">
         <f>B11*B20+C11*C20+D11*D20+E11*E20+F11*F20+G11*G20+H11*H20+I11*I20+J11*J20+K11*K20+L11*L20+M11*M20+N11*N20+O11*O20</f>
-        <v>2.7002582182295044E-2</v>
+        <v>-0.37183826781770479</v>
       </c>
       <c r="E12" s="1">
         <f>B11*B21+C11*C21+D11*D21+E11*E21+F11*F21+G11*G21+H11*H21+I11*I21+J11*J21+K11*K21+L11*L21+M11*M21+N11*N21+O11*O21</f>
@@ -993,7 +998,7 @@
       </c>
       <c r="J12" s="1">
         <f>B11*B26+C11*C26+D11*D26+E11*E26+F11*F26+G11*G26+H11*H26+I11*I26+J11*J26+K11*K26+L11*L26+M11*M26+N11*N26+O11*O26</f>
-        <v>5.3791384499999977E-3</v>
+        <v>5.8424971499999971E-2</v>
       </c>
       <c r="K12" s="1">
         <f>B11*B27+C11*C27+D11*D27+E11*E27+F11*F27+G11*G27+H11*H27+I11*I27+J11*J27+K11*K27+L11*L27+M11*M27+N11*N27+O11*O27</f>
@@ -1001,11 +1006,11 @@
       </c>
       <c r="L12" s="1">
         <f>B11*B28+C11*C28+D11*D28+E11*E28+F11*F28+G11*G28+H11*H28+I11*I28+J11*J28+K11*K28+L11*L28+M11*M28+N11*N28+O11*O28</f>
-        <v>-3.5960565049999997E-2</v>
+        <v>-7.1856241549999977E-2</v>
       </c>
       <c r="M12" s="1">
         <f>B11*B29+C11*C29+D11*D29+E11*E29+F11*F29+G11*G29+H11*H29+I11*I29+J11*J29+K11*K29+L11*L29+M11*M29+N11*N29+O11*O29</f>
-        <v>-7.6781714731263731E-2</v>
+        <v>-7.2773601141607495E-3</v>
       </c>
       <c r="N12" s="1">
         <f>B11*B30+C11*C30+D11*D30+E11*E30+F11*F30+G11*G30+H11*H30+I11*I30+J11*J30+K11*K30+L11*L30+M11*M30+N11*N30+O11*O30</f>
@@ -1029,11 +1034,11 @@
       </c>
       <c r="C13" s="1">
         <f>B12*B19+C12*C19+D12*D19+E12*E19+F12*F19+G12*G19+H12*H19+I12*I19+J12*J19+K12*K19+L12*L19+M12*M19+N12*N19+O12*O19</f>
-        <v>-0.38743342472393438</v>
+        <v>-3.1793193747239332</v>
       </c>
       <c r="D13" s="1">
         <f>B12*B20+C12*C20+D12*D20+E12*E20+F12*F20+G12*G20+H12*H20+I12*I20+J12*J20+K12*K20+L12*L20+M12*M20+N12*N20+O12*O20</f>
-        <v>-0.30373293276867586</v>
+        <v>-0.25068709971867587</v>
       </c>
       <c r="E13" s="1">
         <f>B12*B21+C12*C21+D12*D21+E12*E21+F12*F21+G12*G21+H12*H21+I12*I21+J12*J21+K12*K21+L12*L21+M12*M21+N12*N21+O12*O21</f>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="F13" s="1">
         <f>B12*B22+C12*C22+D12*D22+E12*E22+F12*F22+G12*G22+H12*H22+I12*I22+J12*J22+K12*K22+L12*L22+M12*M22+N12*N22+O12*O22</f>
-        <v>0.22537233356511865</v>
+        <v>2.8178378585651176</v>
       </c>
       <c r="G13" s="1">
         <f>B12*B23+C12*C23+D12*D23+E12*E23+F12*F23+G12*G23+H12*H23+I12*I23+J12*J23+K12*K23+L12*L23+M12*M23+N12*N23+O12*O23</f>
@@ -1399,10 +1404,10 @@
       <c r="A23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>-9.9999999999999994E-12</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="D23" s="10">
@@ -1502,7 +1507,7 @@
       <c r="B25" s="10">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="11">
         <v>-5.0000000000000002E-11</v>
       </c>
       <c r="D25" s="10">
@@ -1550,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="10">
-        <v>-8.9876999999999999E-2</v>
+        <v>-0.97619</v>
       </c>
       <c r="C26" s="10">
         <v>0</v>
@@ -1702,7 +1707,7 @@
       <c r="B29" s="10">
         <v>-1.0000000000000001E-9</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="D29" s="10">
@@ -1718,7 +1723,7 @@
         <v>0.05</v>
       </c>
       <c r="H29" s="10">
-        <v>0.42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I29" s="10">
         <v>0</v>
@@ -1752,7 +1757,7 @@
       <c r="B30" s="10">
         <v>-1.0000000000000001E-9</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="11">
         <v>5.0000000000000002E-11</v>
       </c>
       <c r="D30" s="10">
